--- a/biology/Botanique/Micromeria_teneriffae/Micromeria_teneriffae.xlsx
+++ b/biology/Botanique/Micromeria_teneriffae/Micromeria_teneriffae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Micromeria teneriffae est une espèce de petite plante chaméphyte ligneuse rare de la famille des Labiatae. Elle est endémique de l'île de Tenerife, l'une des îles Canaries. 
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude phylogénétique des Micromeria a permis de démontrer que ce genre, bien que monophylétique, s'est divisé en deux sous-genres, l'un propre à l'Espagne et au Maroc, l'autre aux Îles Canaries comprenant Tenerife[1]. Le sous-genre des Îles Canaries peut lui-même être divisé en trois grâce à l'analyse des cluster de gènes. Micromeria teneriffae appartient au cluster des trois espèces présentes sur la paléo-île d'Anaga, avec M. glomerata et M. rivas-martinezii. La diversification des Micromeria sur Tenerife s'explique par l'histoire géologique de l'île, jadis composée de trois îles qui se sont regroupées (Anaga, Adeje et Teno[2]). Le cluster auquel appartient M. teneriffae est d'abord arrivé sur l'île d'Anaga, la plus ancienne, d'où il s'est diversifié. Cette histoire géologique mouvementée explique en grande partie le haut niveau d'endémisme des plantes observées sur Tenerife, y compris celui de Micromeria teneriffae[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude phylogénétique des Micromeria a permis de démontrer que ce genre, bien que monophylétique, s'est divisé en deux sous-genres, l'un propre à l'Espagne et au Maroc, l'autre aux Îles Canaries comprenant Tenerife. Le sous-genre des Îles Canaries peut lui-même être divisé en trois grâce à l'analyse des cluster de gènes. Micromeria teneriffae appartient au cluster des trois espèces présentes sur la paléo-île d'Anaga, avec M. glomerata et M. rivas-martinezii. La diversification des Micromeria sur Tenerife s'explique par l'histoire géologique de l'île, jadis composée de trois îles qui se sont regroupées (Anaga, Adeje et Teno). Le cluster auquel appartient M. teneriffae est d'abord arrivé sur l'île d'Anaga, la plus ancienne, d'où il s'est diversifié. Cette histoire géologique mouvementée explique en grande partie le haut niveau d'endémisme des plantes observées sur Tenerife, y compris celui de Micromeria teneriffae. 
 </t>
         </is>
       </c>
